--- a/sourceData/售后渠道退款单/售后渠道退款单1.xlsx
+++ b/sourceData/售后渠道退款单/售后渠道退款单1.xlsx
@@ -11,14 +11,14 @@
     <sheet name="按销售日期统计" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">明细!$A$1:$B$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">明细!$A$1:$B$19</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="102">
   <si>
     <t>订单编号</t>
   </si>
@@ -30,12 +30,6 @@
   </si>
   <si>
     <t>w1233</t>
-  </si>
-  <si>
-    <t>w1234</t>
-  </si>
-  <si>
-    <t>w1235</t>
   </si>
   <si>
     <t>w1236</t>
@@ -1369,10 +1363,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B21"/>
+      <selection activeCell="A4" sqref="$A4:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1410,7 +1404,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1418,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1426,7 +1420,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1434,7 +1428,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1442,7 +1436,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1450,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1458,7 +1452,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1466,7 +1460,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1474,7 +1468,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="5">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1482,7 +1476,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1490,7 +1484,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1498,7 +1492,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="5">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1506,7 +1500,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="5">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1514,7 +1508,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1522,7 +1516,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1530,27 +1524,11 @@
         <v>19</v>
       </c>
       <c r="B19" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="5">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B5">
+  <autoFilter ref="A1:B19">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1571,45 +1549,45 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>4</v>
@@ -1636,13 +1614,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -1669,13 +1647,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -1702,13 +1680,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -1735,13 +1713,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -1768,13 +1746,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -1801,13 +1779,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1834,13 +1812,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -1867,13 +1845,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -1900,13 +1878,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -1933,13 +1911,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -1966,13 +1944,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2">
         <v>10</v>
@@ -1999,13 +1977,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
@@ -2032,13 +2010,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -2065,13 +2043,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -2098,13 +2076,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -2131,13 +2109,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -2164,13 +2142,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -2197,13 +2175,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -2230,13 +2208,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -2263,13 +2241,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -2296,13 +2274,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -2329,13 +2307,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
@@ -2362,13 +2340,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
@@ -2395,13 +2373,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2">
         <v>2</v>
@@ -2428,13 +2406,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -2461,13 +2439,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -2494,13 +2472,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -2527,13 +2505,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -2560,13 +2538,13 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -2593,13 +2571,13 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -2626,13 +2604,13 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -2659,13 +2637,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -2692,13 +2670,13 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -2725,13 +2703,13 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -2758,13 +2736,13 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -2791,13 +2769,13 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -2824,13 +2802,13 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -2857,13 +2835,13 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D40" s="2">
         <v>3</v>
@@ -2890,13 +2868,13 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
@@ -2923,13 +2901,13 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
@@ -2956,13 +2934,13 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -2989,13 +2967,13 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -3022,13 +3000,13 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
@@ -3055,13 +3033,13 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
@@ -3088,13 +3066,13 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
@@ -3121,13 +3099,13 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D48" s="2">
         <v>2</v>
@@ -3154,13 +3132,13 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D49" s="2">
         <v>1</v>
@@ -3187,13 +3165,13 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -3218,13 +3196,13 @@
         <v>175</v>
       </c>
       <c r="M50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="P50" s="2">
         <v>41</v>
@@ -3232,13 +3210,13 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
@@ -3263,13 +3241,13 @@
         <v>32</v>
       </c>
       <c r="M51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O51" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="P51" s="2">
         <v>130</v>
@@ -3277,7 +3255,7 @@
     </row>
     <row r="52" spans="9:16">
       <c r="I52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J52">
         <v>-171</v>
@@ -3289,7 +3267,7 @@
     </row>
     <row r="53" spans="9:10">
       <c r="I53" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J53" s="3">
         <f>SUM(J2:J52)</f>
